--- a/DateBase/orders/Nha Thu_2025-3-2.xlsx
+++ b/DateBase/orders/Nha Thu_2025-3-2.xlsx
@@ -898,6 +898,9 @@
       <c r="G2" t="str">
         <v>04510219661085230515101041030000020103050505055555517119520124107105</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
